--- a/PythonVisualizacionDatos/Sprint_1/Planifica/Backlog.xlsx
+++ b/PythonVisualizacionDatos/Sprint_1/Planifica/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pugah\Desktop\Digital NAO\Sprint 1\Entregables\Planifica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pugah\Documents\CFS\GitHub\DigitalNAO-Challenges\PythonVisualizacionDatos\Sprint_2\Entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C697070-1849-4BC4-91AD-6E8E46857832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F19E51-8B46-4235-B38A-CA9E91626C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{70D484C6-F289-4FCB-ABF8-A2D7D1CE18F0}"/>
   </bookViews>
@@ -39,295 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cliente de Olist, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>quiero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> poder rastrear mi pedido en tiempo real, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> saber exactamente cuándo llegará.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cliente de Olist, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>quiero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> poder personalizar mis preferencias de entrega, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> recibir mis pedidos en el momento y lugar que más me convengan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cliente de Olist, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>quiero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> recibir una respuesta rápida y efectiva a mis quejas en redes sociales, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sentirme escuchado y valorado como cliente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cliente de Olist, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>quiero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> tener un proceso sencillo y claro para devolver productos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sentirme seguro al hacer compras en la plataforma.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cliente de Olist, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>quiero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> que mis pedidos sean entregados a tiempo, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>para</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> asegurarme de recibir mis productos cuando los necesito.</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Historias de Usuario</t>
   </si>
@@ -348,24 +60,6 @@
   </si>
   <si>
     <t>Entregables</t>
-  </si>
-  <si>
-    <t>Interfaz de Usuario, Notificaciones en Tiempo Real, Integración con el Sistema de Logística.</t>
-  </si>
-  <si>
-    <t>Monitorización de Redes Sociales, Respuesta Rápida, Seguimiento y Resolución, Integración y Automatización</t>
-  </si>
-  <si>
-    <t>Proceso de Devolución en la Interfaz de Usuario, Instrucciones de Devolución, Sistema de Confirmación y Actualización</t>
-  </si>
-  <si>
-    <t>Elección de Fechas y Horarios de Entrega, Opciones de Ubicación de Entrega, Confirmación y Actualización de Preferencias</t>
-  </si>
-  <si>
-    <t>Entregas en el Tiempo Estimado, Sistema de Seguimiento de Pedidos, Reducción de Retrasos en Regiones Problemáticas.</t>
-  </si>
-  <si>
-    <t>** Está tabla se actualiza según se avanza cada Sprint</t>
   </si>
   <si>
     <t>Data Analyst Core</t>
@@ -391,13 +85,450 @@
   <si>
     <t>Bibliotecas de Python y herramientas de 
 visualización de datos</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Respuesta Rápida a Quejas en Redes Sociales</t>
+  </si>
+  <si>
+    <t>Rastreo de Pedido en Tiempo Real</t>
+  </si>
+  <si>
+    <t>Proceso Sencillo para Devolución de Productos</t>
+  </si>
+  <si>
+    <t>Entrega Puntual de Pedidos</t>
+  </si>
+  <si>
+    <t>Personalización de Preferencias de Entrega</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cliente de Olist, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>quiero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> recibir una respuesta rápida y efectiva a mis quejas en redes sociales, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>para</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sentirme escuchado y valorado como cliente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cliente de Olist, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>quiero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> poder rastrear mi pedido en tiempo real, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>para</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> saber exactamente cuándo llegará.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cliente de Olist, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>quiero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tener un proceso sencillo y claro para devolver productos, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>para</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sentirme seguro al hacer compras en la plataforma.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cliente de Olist, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>quiero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> que mis pedidos sean entregados a tiempo, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>para</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> asegurarme de recibir mis productos cuando los necesito.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cliente de Olist, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>quiero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> poder personalizar mis preferencias de entrega, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>para</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> recibir mis pedidos en el momento y lugar que más me convengan.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Funcionales &gt;&gt;
+1. El sistema debe identificar automáticamente las quejas en redes sociales mediante palabras clave o hashtags específicos.
+2. Debe enviar una respuesta inicial automática en menos de 2 horas.
+3. Los agentes de atención al cliente deben poder intervenir para resolver las quejas más complejas.
+4. Debe haber un seguimiento manual para confirmar la satisfacción del cliente con la resolución.
+No Funcionales &gt;&gt;
+1. La interfaz del sistema de quejas debe ser intuitiva y fácil de usar por el equipo de atención al cliente.
+2. La plataforma debe ser escalable para manejar un alto volumen de quejas sin afectar el rendimiento.
+3. El sistema debe garantizar la seguridad y privacidad de los datos del cliente.
+</t>
+  </si>
+  <si>
+    <t>Funcionales &gt;&gt;
+1. Se debe crear una sección dedicada para devoluciones en la cuenta del cliente, accesible desde la web y la aplicación móvil.
+2. El sistema debe proporcionar un formulario fácil de completar para iniciar la devolución.
+3. El sistema debe enviar notificaciones automáticas al cliente sobre el estado de la devolución.
+No Funcionales &gt;&gt;
+1. El proceso de devolución debe completarse en menos de 3 minutos.
+2. El sistema de devoluciones debe integrarse con la gestión de inventario sin afectar el rendimiento.</t>
+  </si>
+  <si>
+    <t>Funcionales &gt;&gt;
+1. El sistema debe proporcionar estimaciones de entrega precisas a las clientes basadas en la ubicación y disponibilidad de productos.
+2. El sistema debe identificar las regiones con mayores problemas de retrasos y optimizar las rutas de entrega.
+3. Los informes deben medir el rendimiento de las entregas y resaltar áreas problemáticas.
+4. Las notificaciones automáticas deben avisar al cliente si hay algún retraso en la entrega.
+No Funcionales &gt;&gt;
+1.	Las estimaciones de entrega deben ser precisas en al menos un 95% de los casos.
+2.	El tiempo promedio de entrega debe mejorar en al menos un 90% en las regiones problemáticas.
+3.	El sistema debe ser capaz de manejar la logística de múltiples regiones sin sobrecargar los servidores.
+4.	La seguridad de los datos de entrega y ubicación del cliente debe estar garantizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionales &gt;&gt;
+1. El sistema debe permitir a los clientes seleccionar fechas y horarios específicos para la entrega de sus pedidos.
+2. Deben ofrecerse opciones de entrega en múltiples ubicaciones (ejm. casa, trabajo, puntos de recogida).
+3. El sistema debe confirmar las preferencias de entrega del cliente y enviar notificaciones automáticas en caso de cambios.
+4. Debe haber opciones para que el cliente modifique sus preferencias de entrega si es necesario.
+No Funcionales &gt;&gt;
+1.	La interfaz de personalización debe ser fácil de usar, con pasos claros y mínimos clics.
+2.	Las preferencias de entrega deben ser confirmadas en menos de 1 minuto después de ser seleccionadas.
+3.	El sistema debe ser escalable para soportar un gran número de solicitudes de personalización de entregas.
+4.	Las actualizaciones de entrega deben ser enviadas al cliente en menos de 5 minutos en caso de cambios.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Funcionales &gt;&gt;
+1. El sistema debe proporcionar a los clientes una interfaz web y móvil para rastrear sus pedidos en tiempo real.
+2. Las actualizaciones del estado de los pedidos deben reflejarse en la interfaz en intervalos regulares (ejm. cada 15 minutos).
+3. Deben enviarse notificaciones automáticas a los clientes en puntos clave del proceso de entrega (salida del almacén, llegada a la ciudad de destino, entrega al cliente).
+No Funcionales &gt;&gt;
+1. El sistema debe ser confiable y estar disponible el 99.9% del tiempo.
+2. La interfaz de rastreo debe cargar en menos de 2 segundos en conexiones de velocidad media.
+3. El sistema debe ser compatible con diferentes dispositivos y navegadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar sistema automatizado de respuesta en redes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación automática de quejas en redes               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación del equipo de atención al cliente             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de interfaz para rastreo de pedidos               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integración con sistemas logísticos                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimización de rutas de entrega en regiones problemáticas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmaciones automáticas de preferencias de entrega      </t>
+  </si>
+  <si>
+    <t>Spring 1</t>
+  </si>
+  <si>
+    <t>2 semanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 semana </t>
+  </si>
+  <si>
+    <t>3 semanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema básico de respuestas automáticas en redes sociales      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritmo que detecta quejas basadas en palabras clave          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales de formación y talleres realizados                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaz web y móvil para rastreo en tiempo real                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema integrado con datos de transportistas y logística       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de devolución accesible en web y app                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimización logística en regiones con mayores retrasos         </t>
+  </si>
+  <si>
+    <t>Confirmaciones automáticas de preferencias de entrega al cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo del formulario de devolución   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,18 +571,6 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Fira Code"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Fira Code"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Fira Code"/>
@@ -463,6 +582,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -497,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -520,44 +645,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,103 +1214,142 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="85.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="10"/>
+    <col min="1" max="1" width="25.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="85.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
         <v>3049</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="11">
-        <v>45516</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45528</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1CC64F-9185-4416-84B6-B608252C0F1C}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.77734375" defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="172.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="22.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1003,69 +1361,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBBADEB-A25F-42FE-91A2-1FD8685470AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="134.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="153.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="3" spans="1:2" ht="235.2" x14ac:dyDescent="0.5">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="218.4" x14ac:dyDescent="0.5">
+      <c r="A4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="168" x14ac:dyDescent="0.5">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="218.4" x14ac:dyDescent="0.5">
+      <c r="A6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="235.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1078,40 +1436,153 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EA6DC3-63E6-4DEF-B3A8-4E2B18ED5106}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.21875" defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="28.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
